--- a/cypress/Excels/Add emergency Contacts.xlsx
+++ b/cypress/Excels/Add emergency Contacts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -37,19 +37,16 @@
     <t>Mobile no.</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>pradeep</t>
-  </si>
-  <si>
     <t>DropDown</t>
   </si>
   <si>
-    <t>sandesh</t>
-  </si>
-  <si>
-    <t>Sandesh</t>
+    <t>karthik sherigar</t>
+  </si>
+  <si>
+    <t>Karthik</t>
+  </si>
+  <si>
+    <t>Father</t>
   </si>
 </sst>
 </file>
@@ -397,7 +394,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -430,27 +427,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+      <c r="F2">
+        <v>9019803837</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9865235658</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cypress/Excels/Add emergency Contacts.xlsx
+++ b/cypress/Excels/Add emergency Contacts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -40,13 +40,19 @@
     <t>DropDown</t>
   </si>
   <si>
-    <t>karthik sherigar</t>
-  </si>
-  <si>
-    <t>Karthik</t>
-  </si>
-  <si>
-    <t>Father</t>
+    <t>sandesh</t>
+  </si>
+  <si>
+    <t>ravi</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>karthik</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,12 +433,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -441,13 +450,19 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>9019803837</v>
+        <v>9019803836</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>9586547896</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cypress/Excels/Add emergency Contacts.xlsx
+++ b/cypress/Excels/Add emergency Contacts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -43,16 +43,19 @@
     <t>sandesh</t>
   </si>
   <si>
-    <t>ravi</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
     <t>Brother</t>
   </si>
   <si>
-    <t>karthik</t>
+    <t>Karthik Sherigar</t>
+  </si>
+  <si>
+    <t>Abcd</t>
+  </si>
+  <si>
+    <t>efg</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,7 +436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -441,27 +444,27 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F2">
-        <v>9019803836</v>
+        <v>9865478965</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>9586547896</v>
+        <v>8655478965</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/Excels/Add emergency Contacts.xlsx
+++ b/cypress/Excels/Add emergency Contacts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -40,22 +40,19 @@
     <t>DropDown</t>
   </si>
   <si>
-    <t>sandesh</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
     <t>Brother</t>
   </si>
   <si>
-    <t>Karthik Sherigar</t>
-  </si>
-  <si>
     <t>Abcd</t>
   </si>
   <si>
     <t>efg</t>
+  </si>
+  <si>
+    <t>Ravi</t>
   </si>
 </sst>
 </file>
@@ -403,7 +400,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,21 +433,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
       <c r="F2">
         <v>9865478965</v>
@@ -458,10 +452,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>8655478965</v>

--- a/cypress/Excels/Add emergency Contacts.xlsx
+++ b/cypress/Excels/Add emergency Contacts.xlsx
@@ -52,7 +52,7 @@
     <t>efg</t>
   </si>
   <si>
-    <t>Ravi</t>
+    <t>Sandesh</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cypress/Excels/Add emergency Contacts.xlsx
+++ b/cypress/Excels/Add emergency Contacts.xlsx
@@ -25,9 +25,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>karthik.s@pococare.com</t>
-  </si>
-  <si>
     <t>Full name</t>
   </si>
   <si>
@@ -52,17 +49,28 @@
     <t>efg</t>
   </si>
   <si>
-    <t>Sandesh</t>
+    <t>playstoretest@pococare.com</t>
+  </si>
+  <si>
+    <t>Test1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,16 +93,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,7 +413,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,30 +434,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>9865478965</v>
@@ -452,16 +465,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>8655478965</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>